--- a/week-1/lecture_notes/poke_mart.xlsx
+++ b/week-1/lecture_notes/poke_mart.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lisatosti/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lisatosti/Documents/GitHub/coding-temple/week-1/lecture_notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{129C1964-FC66-5E41-B2A5-708F3AADB8A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6A80739-3596-994C-A0C2-FD6E1FC03642}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-66820" yWindow="-4240" windowWidth="24900" windowHeight="16300" xr2:uid="{E08D3CCF-C39B-499D-B4FA-405E21B99C60}"/>
   </bookViews>
@@ -273,29 +273,123 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="6">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -321,100 +415,6 @@
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -429,13 +429,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{897A35BC-6E84-9447-A518-251A803E1302}" name="Table2" displayName="Table2" ref="A1:D16" totalsRowShown="0" headerRowDxfId="0" tableBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{897A35BC-6E84-9447-A518-251A803E1302}" name="Table2" displayName="Table2" ref="A1:D16" totalsRowShown="0" headerRowDxfId="5" tableBorderDxfId="4">
   <autoFilter ref="A1:D16" xr:uid="{897A35BC-6E84-9447-A518-251A803E1302}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{F23DEBCE-005E-A648-B4E0-40B2988744E2}" name="Item" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{F23DEBCE-005E-A648-B4E0-40B2988744E2}" name="Item" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{DC95C6D7-5462-4940-9B67-24886CFDAE05}" name="Item Price" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{62DFF417-708B-8F44-88DE-96860433A33B}" name="Shopping Cart" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{365BA42C-16A3-1A45-98CC-8FD0D03F42B7}" name="Price" dataDxfId="3">
+    <tableColumn id="3" xr3:uid="{62DFF417-708B-8F44-88DE-96860433A33B}" name="Shopping Cart" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{365BA42C-16A3-1A45-98CC-8FD0D03F42B7}" name="Price" dataDxfId="0">
       <calculatedColumnFormula>B2*C2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -754,22 +754,22 @@
     <col min="4" max="4" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="13" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="10" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="14" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="2">
@@ -784,7 +784,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="14" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="2">
@@ -797,7 +797,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="14" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="2">
@@ -812,7 +812,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="2">
@@ -825,7 +825,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="14" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="2">
@@ -838,7 +838,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="14" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="2">
@@ -851,7 +851,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="14" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="2">
@@ -864,7 +864,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="14" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="2">
@@ -879,7 +879,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="14" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="2">
@@ -892,7 +892,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="14" t="s">
         <v>13</v>
       </c>
       <c r="B11" s="2">
@@ -907,7 +907,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="14" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="2">
@@ -920,7 +920,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="14" t="s">
         <v>15</v>
       </c>
       <c r="B13" s="2">
@@ -933,7 +933,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="14" t="s">
         <v>16</v>
       </c>
       <c r="B14" s="2">
@@ -946,7 +946,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="14" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="2">
@@ -961,7 +961,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="15" t="s">
         <v>18</v>
       </c>
       <c r="B16" s="5">
@@ -980,10 +980,10 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="8"/>
+      <c r="B18" s="16"/>
       <c r="C18" s="6">
         <f>SUM(C2:C16)</f>
         <v>12</v>
@@ -994,10 +994,10 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="9"/>
+      <c r="B19" s="17"/>
       <c r="C19" s="7">
         <v>0.1</v>
       </c>
@@ -1010,10 +1010,10 @@
       <c r="A20" s="1"/>
     </row>
     <row r="21" spans="1:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="15">
+      <c r="D21" s="13">
         <f>D18+D19</f>
         <v>7380</v>
       </c>
